--- a/pair_lists/German_groups.xlsx
+++ b/pair_lists/German_groups.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="10815" windowHeight="10245"/>
@@ -11,18 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Numbers to 20</t>
   </si>
@@ -45,12 +39,6 @@
     <t>Simple conversational phrases and essential words</t>
   </si>
   <si>
-    <t>Infinitives</t>
-  </si>
-  <si>
-    <t>Basic words</t>
-  </si>
-  <si>
     <t>Conjugations of regular verbs</t>
   </si>
   <si>
@@ -96,9 +84,6 @@
     <t>Finding a place to live, apartments, renting</t>
   </si>
   <si>
-    <t>Infinitives, some conjugations</t>
-  </si>
-  <si>
     <t>Personality traits</t>
   </si>
   <si>
@@ -117,9 +102,6 @@
     <t>Relatives</t>
   </si>
   <si>
-    <t>People generally</t>
-  </si>
-  <si>
     <t>Post office, mail</t>
   </si>
   <si>
@@ -162,9 +144,6 @@
     <t>Verb infinitives</t>
   </si>
   <si>
-    <t xml:space="preserve"> Adverbs and adjectives (of all types)</t>
-  </si>
-  <si>
     <t>Present past</t>
   </si>
   <si>
@@ -201,20 +180,38 @@
     <t>Conjugations of the most basic verbs</t>
   </si>
   <si>
-    <t>Miscellaneous words</t>
-  </si>
-  <si>
     <t>Government</t>
   </si>
   <si>
     <t>Weather</t>
+  </si>
+  <si>
+    <t>Essential words</t>
+  </si>
+  <si>
+    <t>Miscellaneous 1</t>
+  </si>
+  <si>
+    <t>Miscellaneous 2</t>
+  </si>
+  <si>
+    <t>Miscellaneous 3</t>
+  </si>
+  <si>
+    <t>Miscellaneous 4</t>
+  </si>
+  <si>
+    <t>Miscellaneous 5</t>
+  </si>
+  <si>
+    <t>People</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +248,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -329,6 +331,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -363,6 +366,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,573 +542,589 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>89</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>69</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>73</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>74</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>76</v>
-      </c>
-      <c r="B44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>77</v>
-      </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>78</v>
-      </c>
-      <c r="B46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>81</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>82</v>
-      </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>84</v>
-      </c>
-      <c r="B52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>85</v>
-      </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>86</v>
-      </c>
-      <c r="B54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>87</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>89</v>
-      </c>
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>90</v>
-      </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>91</v>
-      </c>
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>92</v>
-      </c>
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>93</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>94</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>95</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>94</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>95</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>96</v>
-      </c>
-      <c r="B63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>97</v>
-      </c>
-      <c r="B64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>98</v>
       </c>
       <c r="B65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>98</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>99</v>
       </c>
-      <c r="B66" t="s">
-        <v>30</v>
+      <c r="B68" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C82">
-    <sortCondition ref="A2:A82"/>
+  <sortState ref="A1:B69">
+    <sortCondition ref="A1:A69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pair_lists/German_groups.xlsx
+++ b/pair_lists/German_groups.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="10815" windowHeight="10245"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Numbers to 20</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Weather</t>
   </si>
   <si>
-    <t>Essential words</t>
-  </si>
-  <si>
     <t>Miscellaneous 1</t>
   </si>
   <si>
@@ -205,6 +202,12 @@
   </si>
   <si>
     <t>People</t>
+  </si>
+  <si>
+    <t>Words from books</t>
+  </si>
+  <si>
+    <t>Verb examples</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,98 +623,98 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +738,7 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +746,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +770,7 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,284 +794,284 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
         <v>43</v>
@@ -1076,31 +1079,39 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>99</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B69">
-    <sortCondition ref="A1:A69"/>
+  <sortState ref="A1:B68">
+    <sortCondition ref="A1:A68"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pair_lists/German_groups.xlsx
+++ b/pair_lists/German_groups.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Numbers to 20</t>
   </si>
@@ -204,10 +204,16 @@
     <t>People</t>
   </si>
   <si>
-    <t>Words from books</t>
-  </si>
-  <si>
     <t>Verb examples</t>
+  </si>
+  <si>
+    <t>Words from books and newspapers</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Miscellaneous 6</t>
   </si>
 </sst>
 </file>
@@ -546,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +752,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -802,316 +808,332 @@
         <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>99</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B68">
-    <sortCondition ref="A1:A68"/>
+  <sortState ref="A1:B71">
+    <sortCondition ref="A1:A71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
